--- a/Source_files/E_ion.xlsx
+++ b/Source_files/E_ion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboratory\Stark_ML\Source_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F2972AA-65FD-4D30-9392-9FEC9975A04B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE09436-39A4-494D-BA33-C47ECD3F118F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{84992016-2A02-4FEF-B76F-007DB17BAAE8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>H</t>
   </si>
@@ -109,6 +109,105 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Sc</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>Ga</t>
+  </si>
+  <si>
+    <t>Ge</t>
+  </si>
+  <si>
+    <t>As</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se </t>
+  </si>
+  <si>
+    <t>Br</t>
+  </si>
+  <si>
+    <t>Kr</t>
+  </si>
+  <si>
+    <t>Rb</t>
+  </si>
+  <si>
+    <t>Sr</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Zr</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Tc</t>
+  </si>
+  <si>
+    <t>Ru</t>
+  </si>
+  <si>
+    <t>Rh</t>
+  </si>
+  <si>
+    <t>Pd</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>Cd</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>Sb</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>Xe</t>
   </si>
 </sst>
 </file>
@@ -467,7 +566,8 @@
   <dimension ref="A1:M285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1013,9 +1113,18 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1">
+        <v>49305.923999999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>95751.87</v>
+      </c>
+      <c r="D22" s="1">
+        <v>410642.3</v>
+      </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1027,7 +1136,12 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1">
+        <v>52922</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1041,7 +1155,12 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1">
+        <v>55072.5</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1055,7 +1174,12 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1">
+        <v>54411.67</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1069,9 +1193,18 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1">
+        <v>54575.6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>132971.01999999999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>249700</v>
+      </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1083,8 +1216,15 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1">
+        <v>59959.56</v>
+      </c>
+      <c r="C27" s="1">
+        <v>126145</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1097,9 +1237,18 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1">
+        <v>63737.703999999998</v>
+      </c>
+      <c r="C28" s="1">
+        <v>130655.4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>247220</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1111,7 +1260,12 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="1">
+        <v>63564.6</v>
+      </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1125,9 +1279,18 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1">
+        <v>61619.77</v>
+      </c>
+      <c r="C30" s="1">
+        <v>146541.56</v>
+      </c>
+      <c r="D30" s="1">
+        <v>283800</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1139,9 +1302,18 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1">
+        <v>62317.46</v>
+      </c>
+      <c r="C31" s="1">
+        <v>163669.20000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>297140</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1153,9 +1325,18 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1">
+        <v>75769.31</v>
+      </c>
+      <c r="C32" s="1">
+        <v>144892.6</v>
+      </c>
+      <c r="D32" s="1">
+        <v>320390</v>
+      </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1166,10 +1347,19 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="1">
+        <v>48387.633999999998</v>
+      </c>
+      <c r="C33" s="1">
+        <v>165465.79999999999</v>
+      </c>
+      <c r="D33" s="1">
+        <v>247820</v>
+      </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1180,10 +1370,19 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="1">
+        <v>63713.24</v>
+      </c>
+      <c r="C34" s="1">
+        <v>128521.3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>274693</v>
+      </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1194,8 +1393,13 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="1">
+        <v>78950</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1208,8 +1412,13 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="1">
+        <v>78658.149999999994</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1222,10 +1431,19 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="1">
+        <v>95284.800000000003</v>
+      </c>
+      <c r="C37" s="1">
+        <v>174140</v>
+      </c>
+      <c r="D37" s="1">
+        <v>281250</v>
+      </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1236,11 +1454,22 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1">
+        <v>112914.433</v>
+      </c>
+      <c r="C38" s="1">
+        <v>196475.4</v>
+      </c>
+      <c r="D38" s="1">
+        <v>289050</v>
+      </c>
+      <c r="E38" s="1">
+        <v>410100</v>
+      </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1250,9 +1479,16 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="1">
+        <v>33690.81</v>
+      </c>
+      <c r="C39" s="1">
+        <v>220105</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -1264,10 +1500,19 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="1">
+        <v>45932.203600000001</v>
+      </c>
+      <c r="C40" s="1">
+        <v>88965.18</v>
+      </c>
+      <c r="D40" s="1">
+        <v>345879</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1278,8 +1523,13 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="1">
+        <v>50145.599999999999</v>
+      </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1292,8 +1542,13 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="1"/>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="1">
+        <v>53507.832000000002</v>
+      </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -1306,8 +1561,13 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="1"/>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="1">
+        <v>54513.8</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -1320,8 +1580,13 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="1">
+        <v>57204.3</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1334,8 +1599,13 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="1">
+        <v>57421.68</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -1348,8 +1618,13 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="1">
+        <v>59366.400000000001</v>
+      </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1362,8 +1637,13 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="1">
+        <v>60160.1</v>
+      </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -1376,8 +1656,13 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="1"/>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="1">
+        <v>67241.14</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -1390,9 +1675,16 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="1">
+        <v>61106.45</v>
+      </c>
+      <c r="C49" s="1">
+        <v>173283</v>
+      </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1404,10 +1696,19 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="1">
+        <v>72540.05</v>
+      </c>
+      <c r="C50" s="1">
+        <v>136374.74</v>
+      </c>
+      <c r="D50" s="1">
+        <v>302200</v>
+      </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1418,10 +1719,19 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="1">
+        <v>46670.107000000004</v>
+      </c>
+      <c r="C51" s="1">
+        <v>152200.1</v>
+      </c>
+      <c r="D51" s="1">
+        <v>226191.3</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1432,10 +1742,19 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="1">
+        <v>59232.69</v>
+      </c>
+      <c r="C52" s="1">
+        <v>118023.7</v>
+      </c>
+      <c r="D52" s="1">
+        <v>246047</v>
+      </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1446,10 +1765,19 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="1">
+        <v>69431.34</v>
+      </c>
+      <c r="C53" s="1">
+        <v>134100</v>
+      </c>
+      <c r="D53" s="1">
+        <v>204248</v>
+      </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -1460,8 +1788,13 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="1"/>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" s="1">
+        <v>72669.005999999994</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1474,10 +1807,19 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" s="1">
+        <v>84295.1</v>
+      </c>
+      <c r="C55" s="1">
+        <v>154304</v>
+      </c>
+      <c r="D55" s="1">
+        <v>238500</v>
+      </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1488,11 +1830,22 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="1">
+        <v>97833.786999999997</v>
+      </c>
+      <c r="C56" s="1">
+        <v>169175</v>
+      </c>
+      <c r="D56" s="1">
+        <v>250400</v>
+      </c>
+      <c r="E56" s="1">
+        <v>340400</v>
+      </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -1502,7 +1855,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1516,7 +1869,7 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1530,7 +1883,7 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1544,7 +1897,7 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1558,7 +1911,7 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1572,7 +1925,7 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1586,7 +1939,7 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1600,7 +1953,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>

--- a/Source_files/E_ion.xlsx
+++ b/Source_files/E_ion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboratory\Stark_ML\Source_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE09436-39A4-494D-BA33-C47ECD3F118F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ADFE83-D237-4F5A-9F0A-27B89A284010}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{84992016-2A02-4FEF-B76F-007DB17BAAE8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>H</t>
   </si>
@@ -54,36 +54,15 @@
     <t>I</t>
   </si>
   <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
-    <t>IV</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
-    <t>VI</t>
-  </si>
-  <si>
-    <t>VII</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>VIII</t>
-  </si>
-  <si>
     <t>Ne</t>
   </si>
   <si>
-    <t>IX</t>
-  </si>
-  <si>
     <t>Na</t>
   </si>
   <si>
@@ -208,6 +187,51 @@
   </si>
   <si>
     <t>Xe</t>
+  </si>
+  <si>
+    <t>Cs</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t>Hf</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>Os</t>
+  </si>
+  <si>
+    <t>Ir</t>
+  </si>
+  <si>
+    <t>Pt</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>Hg</t>
+  </si>
+  <si>
+    <t>Tl</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>Bi</t>
+  </si>
+  <si>
+    <t>Element</t>
   </si>
 </sst>
 </file>
@@ -243,12 +267,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,100 +584,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDA35BF-7361-443B-91AE-FA8DD3D85055}">
-  <dimension ref="A1:M285"/>
+  <dimension ref="A1:M284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1">
-        <v>8</v>
-      </c>
+      <c r="B2" s="1">
+        <v>109678.77174307</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>109678.77174307</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>198310.66636999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>438908.87884000002</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>198310.66636999999</v>
+        <v>43487.114200000004</v>
       </c>
       <c r="C4" s="1">
-        <v>438908.87884000002</v>
+        <v>610078.52599999995</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -671,15 +687,17 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>43487.114200000004</v>
+        <v>75192.639999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>610078.52599999995</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>146882.85999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1241256.6000000001</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -692,18 +710,20 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>75192.639999999999</v>
+        <v>66928.039999999994</v>
       </c>
       <c r="C6" s="1">
-        <v>146882.85999999999</v>
+        <v>202887.4</v>
       </c>
       <c r="D6" s="1">
-        <v>1241256.6000000001</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>305930.8</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2091972</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -715,21 +735,23 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>66928.039999999994</v>
+        <v>90820.347999999998</v>
       </c>
       <c r="C7" s="1">
-        <v>202887.4</v>
+        <v>196663.31</v>
       </c>
       <c r="D7" s="1">
-        <v>305930.8</v>
+        <v>386241</v>
       </c>
       <c r="E7" s="1">
-        <v>2091972</v>
-      </c>
-      <c r="F7" s="1"/>
+        <v>520175.3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3162423.3</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -740,24 +762,26 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>90820.347999999998</v>
+        <v>117225.7</v>
       </c>
       <c r="C8" s="1">
-        <v>196663.31</v>
+        <v>238750.2</v>
       </c>
       <c r="D8" s="1">
-        <v>386241</v>
+        <v>382672</v>
       </c>
       <c r="E8" s="1">
-        <v>520175.3</v>
+        <v>624866</v>
       </c>
       <c r="F8" s="1">
-        <v>3162423.3</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>789537.2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4452723.3</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -767,27 +791,29 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>117225.7</v>
+        <v>109837.02</v>
       </c>
       <c r="C9" s="1">
-        <v>238750.2</v>
+        <v>283270.90000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>382672</v>
+        <v>443085</v>
       </c>
       <c r="E9" s="1">
-        <v>624866</v>
+        <v>624382</v>
       </c>
       <c r="F9" s="1">
-        <v>789537.2</v>
+        <v>918657</v>
       </c>
       <c r="G9" s="1">
-        <v>4452723.3</v>
-      </c>
-      <c r="H9" s="1"/>
+        <v>1114004</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5963073</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -796,30 +822,32 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1">
-        <v>109837.02</v>
+        <v>140524.5</v>
       </c>
       <c r="C10" s="1">
-        <v>283270.90000000002</v>
+        <v>282058.59999999998</v>
       </c>
       <c r="D10" s="1">
-        <v>443085</v>
+        <v>505774</v>
       </c>
       <c r="E10" s="1">
-        <v>624382</v>
+        <v>703110</v>
       </c>
       <c r="F10" s="1">
-        <v>918657</v>
+        <v>921480</v>
       </c>
       <c r="G10" s="1">
-        <v>1114004</v>
+        <v>1267606</v>
       </c>
       <c r="H10" s="1">
-        <v>5963073</v>
-      </c>
-      <c r="I10" s="1"/>
+        <v>1493632</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7693706.5999999996</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -827,83 +855,73 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1">
-        <v>140524.5</v>
+        <v>173929.75</v>
       </c>
       <c r="C11" s="1">
-        <v>282058.59999999998</v>
+        <v>330388.59999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>505774</v>
+        <v>511543.5</v>
       </c>
       <c r="E11" s="1">
-        <v>703110</v>
+        <v>783890</v>
       </c>
       <c r="F11" s="1">
-        <v>921480</v>
+        <v>1018250</v>
       </c>
       <c r="G11" s="1">
-        <v>1267606</v>
+        <v>1273820</v>
       </c>
       <c r="H11" s="1">
-        <v>1493632</v>
+        <v>1671750</v>
       </c>
       <c r="I11" s="1">
-        <v>7693706.5999999996</v>
-      </c>
-      <c r="J11" s="1"/>
+        <v>1928447</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9644840.6999999993</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>173929.75</v>
+        <v>41449.451000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>330388.59999999998</v>
-      </c>
-      <c r="D12" s="1">
-        <v>511543.5</v>
-      </c>
-      <c r="E12" s="1">
-        <v>783890</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1018250</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1273820</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1671750</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1928447</v>
-      </c>
-      <c r="J12" s="1">
-        <v>9644840.6999999993</v>
-      </c>
+        <v>381390.2</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>41449.451000000001</v>
+        <v>61671.05</v>
       </c>
       <c r="C13" s="1">
-        <v>381390.2</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>121267.64</v>
+      </c>
+      <c r="D13" s="1">
+        <v>646402</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -916,18 +934,20 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>61671.05</v>
+        <v>48278.48</v>
       </c>
       <c r="C14" s="1">
-        <v>121267.64</v>
+        <v>151862.5</v>
       </c>
       <c r="D14" s="1">
-        <v>646402</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>229445.71</v>
+      </c>
+      <c r="E14" s="1">
+        <v>967804</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -939,21 +959,23 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>48278.48</v>
+        <v>65747.759999999995</v>
       </c>
       <c r="C15" s="1">
-        <v>151862.5</v>
+        <v>131838.14000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>229445.71</v>
+        <v>270139.3</v>
       </c>
       <c r="E15" s="1">
-        <v>967804</v>
-      </c>
-      <c r="F15" s="1"/>
+        <v>364093.1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1345070</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -964,23 +986,19 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>65747.759999999995</v>
+        <v>84580.83</v>
       </c>
       <c r="C16" s="1">
-        <v>131838.14000000001</v>
+        <v>159451.70000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>270139.3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>364093.1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1345070</v>
-      </c>
+        <v>243600.7</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -991,18 +1009,20 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>84580.83</v>
+        <v>83559.100000000006</v>
       </c>
       <c r="C17" s="1">
-        <v>159451.70000000001</v>
+        <v>188232.7</v>
       </c>
       <c r="D17" s="1">
-        <v>243600.7</v>
-      </c>
-      <c r="E17" s="1"/>
+        <v>281130</v>
+      </c>
+      <c r="E17" s="1">
+        <v>380870</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -1014,21 +1034,23 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
-        <v>83559.100000000006</v>
+        <v>104591.01</v>
       </c>
       <c r="C18" s="1">
-        <v>188232.7</v>
+        <v>192070</v>
       </c>
       <c r="D18" s="1">
-        <v>281130</v>
+        <v>320970</v>
       </c>
       <c r="E18" s="1">
-        <v>380870</v>
-      </c>
-      <c r="F18" s="1"/>
+        <v>429430</v>
+      </c>
+      <c r="F18" s="1">
+        <v>545840</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1039,22 +1061,22 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
-        <v>104591.01</v>
+        <v>127109.842</v>
       </c>
       <c r="C19" s="1">
-        <v>192070</v>
+        <v>222848.3</v>
       </c>
       <c r="D19" s="1">
-        <v>320970</v>
+        <v>328550</v>
       </c>
       <c r="E19" s="1">
-        <v>429430</v>
+        <v>480560</v>
       </c>
       <c r="F19" s="1">
-        <v>545840</v>
+        <v>603660</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1066,23 +1088,17 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
-        <v>127109.842</v>
+        <v>35009.813999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>222848.3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>328550</v>
-      </c>
-      <c r="E20" s="1">
-        <v>480560</v>
-      </c>
-      <c r="F20" s="1">
-        <v>603660</v>
-      </c>
+        <v>255072.8</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1093,15 +1109,17 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>35009.813999999998</v>
+        <v>49305.923999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>255072.8</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>95751.87</v>
+      </c>
+      <c r="D21" s="1">
+        <v>410642.3</v>
+      </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1114,17 +1132,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
-        <v>49305.923999999999</v>
-      </c>
-      <c r="C22" s="1">
-        <v>95751.87</v>
-      </c>
-      <c r="D22" s="1">
-        <v>410642.3</v>
-      </c>
+        <v>52922</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1137,10 +1151,10 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>52922</v>
+        <v>55072.5</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1156,10 +1170,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B24" s="1">
-        <v>55072.5</v>
+        <v>54411.67</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1175,13 +1189,17 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>54411.67</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+        <v>54575.6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>132971.01999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>249700</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1194,17 +1212,15 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>54575.6</v>
+        <v>59959.56</v>
       </c>
       <c r="C26" s="1">
-        <v>132971.01999999999</v>
-      </c>
-      <c r="D26" s="1">
-        <v>249700</v>
-      </c>
+        <v>126145</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1217,15 +1233,17 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>59959.56</v>
+        <v>63737.703999999998</v>
       </c>
       <c r="C27" s="1">
-        <v>126145</v>
-      </c>
-      <c r="D27" s="1"/>
+        <v>130655.4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>247220</v>
+      </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1238,17 +1256,13 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>63737.703999999998</v>
-      </c>
-      <c r="C28" s="1">
-        <v>130655.4</v>
-      </c>
-      <c r="D28" s="1">
-        <v>247220</v>
-      </c>
+        <v>63564.6</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1261,13 +1275,17 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>63564.6</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+        <v>61619.77</v>
+      </c>
+      <c r="C29" s="1">
+        <v>146541.56</v>
+      </c>
+      <c r="D29" s="1">
+        <v>283800</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1280,16 +1298,16 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>61619.77</v>
+        <v>62317.46</v>
       </c>
       <c r="C30" s="1">
-        <v>146541.56</v>
+        <v>163669.20000000001</v>
       </c>
       <c r="D30" s="1">
-        <v>283800</v>
+        <v>297140</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1303,16 +1321,16 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
-        <v>62317.46</v>
+        <v>75769.31</v>
       </c>
       <c r="C31" s="1">
-        <v>163669.20000000001</v>
+        <v>144892.6</v>
       </c>
       <c r="D31" s="1">
-        <v>297140</v>
+        <v>320390</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1326,16 +1344,16 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>75769.31</v>
+        <v>48387.633999999998</v>
       </c>
       <c r="C32" s="1">
-        <v>144892.6</v>
+        <v>165465.79999999999</v>
       </c>
       <c r="D32" s="1">
-        <v>320390</v>
+        <v>247820</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1349,16 +1367,16 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
-        <v>48387.633999999998</v>
+        <v>63713.24</v>
       </c>
       <c r="C33" s="1">
-        <v>165465.79999999999</v>
+        <v>128521.3</v>
       </c>
       <c r="D33" s="1">
-        <v>247820</v>
+        <v>274693</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1372,17 +1390,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>63713.24</v>
-      </c>
-      <c r="C34" s="1">
-        <v>128521.3</v>
-      </c>
-      <c r="D34" s="1">
-        <v>274693</v>
-      </c>
+        <v>78950</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1395,10 +1409,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>78950</v>
+        <v>78658.149999999994</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1414,13 +1428,17 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>78658.149999999994</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+        <v>95284.800000000003</v>
+      </c>
+      <c r="C36" s="1">
+        <v>174140</v>
+      </c>
+      <c r="D36" s="1">
+        <v>281250</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1433,18 +1451,20 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
-        <v>95284.800000000003</v>
+        <v>112914.433</v>
       </c>
       <c r="C37" s="1">
-        <v>174140</v>
+        <v>196475.4</v>
       </c>
       <c r="D37" s="1">
-        <v>281250</v>
-      </c>
-      <c r="E37" s="1"/>
+        <v>289050</v>
+      </c>
+      <c r="E37" s="1">
+        <v>410100</v>
+      </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1456,20 +1476,16 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>112914.433</v>
+        <v>33690.81</v>
       </c>
       <c r="C38" s="1">
-        <v>196475.4</v>
-      </c>
-      <c r="D38" s="1">
-        <v>289050</v>
-      </c>
-      <c r="E38" s="1">
-        <v>410100</v>
-      </c>
+        <v>220105</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -1481,15 +1497,17 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
-        <v>33690.81</v>
+        <v>45932.203600000001</v>
       </c>
       <c r="C39" s="1">
-        <v>220105</v>
-      </c>
-      <c r="D39" s="1"/>
+        <v>88965.18</v>
+      </c>
+      <c r="D39" s="1">
+        <v>345879</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1502,17 +1520,13 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>45932.203600000001</v>
-      </c>
-      <c r="C40" s="1">
-        <v>88965.18</v>
-      </c>
-      <c r="D40" s="1">
-        <v>345879</v>
-      </c>
+        <v>50145.599999999999</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1525,10 +1539,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
-        <v>50145.599999999999</v>
+        <v>53507.832000000002</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1544,10 +1558,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>53507.832000000002</v>
+        <v>54513.8</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1563,10 +1577,10 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>54513.8</v>
+        <v>57204.3</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1582,10 +1596,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>57204.3</v>
+        <v>57421.68</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1601,10 +1615,10 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>57421.68</v>
+        <v>59366.400000000001</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1620,10 +1634,10 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>59366.400000000001</v>
+        <v>60160.1</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1639,10 +1653,10 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>60160.1</v>
+        <v>67241.14</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1658,12 +1672,14 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
-        <v>67241.14</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>61106.45</v>
+      </c>
+      <c r="C48" s="1">
+        <v>173283</v>
+      </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1677,15 +1693,17 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>61106.45</v>
+        <v>72540.05</v>
       </c>
       <c r="C49" s="1">
-        <v>173283</v>
-      </c>
-      <c r="D49" s="1"/>
+        <v>136374.74</v>
+      </c>
+      <c r="D49" s="1">
+        <v>302200</v>
+      </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1698,16 +1716,16 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
-        <v>72540.05</v>
+        <v>46670.107000000004</v>
       </c>
       <c r="C50" s="1">
-        <v>136374.74</v>
+        <v>152200.1</v>
       </c>
       <c r="D50" s="1">
-        <v>302200</v>
+        <v>226191.3</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1721,16 +1739,16 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>46670.107000000004</v>
+        <v>59232.69</v>
       </c>
       <c r="C51" s="1">
-        <v>152200.1</v>
+        <v>118023.7</v>
       </c>
       <c r="D51" s="1">
-        <v>226191.3</v>
+        <v>246047</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1744,16 +1762,16 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>59232.69</v>
+        <v>69431.34</v>
       </c>
       <c r="C52" s="1">
-        <v>118023.7</v>
+        <v>134100</v>
       </c>
       <c r="D52" s="1">
-        <v>246047</v>
+        <v>204248</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1767,17 +1785,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1">
-        <v>69431.34</v>
-      </c>
-      <c r="C53" s="1">
-        <v>134100</v>
-      </c>
-      <c r="D53" s="1">
-        <v>204248</v>
-      </c>
+        <v>72669.005999999994</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -1790,13 +1804,17 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="B54" s="1">
-        <v>72669.005999999994</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+        <v>84295.1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>154304</v>
+      </c>
+      <c r="D54" s="1">
+        <v>238500</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1809,18 +1827,20 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>84295.1</v>
+        <v>97833.786999999997</v>
       </c>
       <c r="C55" s="1">
-        <v>154304</v>
+        <v>169175</v>
       </c>
       <c r="D55" s="1">
-        <v>238500</v>
-      </c>
-      <c r="E55" s="1"/>
+        <v>250400</v>
+      </c>
+      <c r="E55" s="1">
+        <v>340400</v>
+      </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -1832,20 +1852,16 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>97833.786999999997</v>
+        <v>31406.467732500001</v>
       </c>
       <c r="C56" s="1">
-        <v>169175</v>
-      </c>
-      <c r="D56" s="1">
-        <v>250400</v>
-      </c>
-      <c r="E56" s="1">
-        <v>340400</v>
-      </c>
+        <v>186777.4</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -1856,9 +1872,18 @@
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1">
+        <v>42034.91</v>
+      </c>
+      <c r="C57" s="1">
+        <v>80686.3</v>
+      </c>
+      <c r="D57" s="1">
+        <v>289100</v>
+      </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1870,7 +1895,12 @@
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="1"/>
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1">
+        <v>55047.9</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1884,7 +1914,12 @@
       <c r="M58" s="1"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="1"/>
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1">
+        <v>60891.4</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1898,7 +1933,12 @@
       <c r="M59" s="1"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="1"/>
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>63427.7</v>
+      </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1912,7 +1952,12 @@
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="1"/>
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1">
+        <v>63181.599999999999</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1926,7 +1971,12 @@
       <c r="M61" s="1"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B62" s="1"/>
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1">
+        <v>68058.899999999994</v>
+      </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1940,7 +1990,12 @@
       <c r="M62" s="1"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B63" s="1"/>
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>72323.899999999994</v>
+      </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1954,7 +2009,12 @@
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B64" s="1"/>
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>72257.8</v>
+      </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1967,8 +2027,13 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="1"/>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1">
+        <v>74409.11</v>
+      </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1981,10 +2046,19 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1">
+        <v>84184.15</v>
+      </c>
+      <c r="C66" s="1">
+        <v>151284.4</v>
+      </c>
+      <c r="D66" s="1">
+        <v>278200</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -1995,9 +2069,16 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1">
+        <v>49266.66</v>
+      </c>
+      <c r="C67" s="1">
+        <v>164765</v>
+      </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2009,10 +2090,19 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1">
+        <v>59819.557999999997</v>
+      </c>
+      <c r="C68" s="1">
+        <v>121245.28</v>
+      </c>
+      <c r="D68" s="1">
+        <v>257592</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -2023,10 +2113,19 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1">
+        <v>58761.65</v>
+      </c>
+      <c r="C69" s="1">
+        <v>134720</v>
+      </c>
+      <c r="D69" s="1">
+        <v>206242</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -2037,7 +2136,7 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2051,7 +2150,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2065,7 +2164,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2079,7 +2178,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2093,7 +2192,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2107,7 +2206,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2121,7 +2220,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2135,7 +2234,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2149,7 +2248,7 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2163,7 +2262,7 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2177,7 +2276,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -5047,20 +5146,6 @@
       <c r="L284" s="1"/>
       <c r="M284" s="1"/>
     </row>
-    <row r="285" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B285" s="1"/>
-      <c r="C285" s="1"/>
-      <c r="D285" s="1"/>
-      <c r="E285" s="1"/>
-      <c r="F285" s="1"/>
-      <c r="G285" s="1"/>
-      <c r="H285" s="1"/>
-      <c r="I285" s="1"/>
-      <c r="J285" s="1"/>
-      <c r="K285" s="1"/>
-      <c r="L285" s="1"/>
-      <c r="M285" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Source_files/E_ion.xlsx
+++ b/Source_files/E_ion.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboratory\Stark_ML\Source_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Stark_ML\Source_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ADFE83-D237-4F5A-9F0A-27B89A284010}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556010F3-9BFB-46D9-BC23-775CBE197B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" xr2:uid="{84992016-2A02-4FEF-B76F-007DB17BAAE8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84992016-2A02-4FEF-B76F-007DB17BAAE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>H</t>
   </si>
@@ -232,6 +241,9 @@
   </si>
   <si>
     <t>Element</t>
+  </si>
+  <si>
+    <t>Nd</t>
   </si>
 </sst>
 </file>
@@ -584,16 +596,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDA35BF-7361-443B-91AE-FA8DD3D85055}">
-  <dimension ref="A1:M284"/>
+  <dimension ref="A1:M285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -625,7 +637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -643,7 +655,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -664,7 +676,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -685,7 +697,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -708,7 +720,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -733,7 +745,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -760,7 +772,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -789,7 +801,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -820,7 +832,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -853,7 +865,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -888,7 +900,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -909,7 +921,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -932,7 +944,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -957,7 +969,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -984,7 +996,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1007,7 +1019,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1044,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1059,7 +1071,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1086,7 +1098,7 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1107,7 +1119,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1130,7 +1142,7 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1149,7 +1161,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1168,7 +1180,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1187,7 +1199,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1210,7 +1222,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1231,7 +1243,7 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1254,7 +1266,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1273,7 +1285,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1296,7 +1308,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1319,7 +1331,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1342,7 +1354,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1365,7 +1377,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1388,7 +1400,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1407,7 +1419,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1426,7 +1438,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1449,7 +1461,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1474,7 +1486,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1495,7 +1507,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1518,7 +1530,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1537,7 +1549,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1556,7 +1568,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1575,7 +1587,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1594,7 +1606,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1613,7 +1625,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1632,7 +1644,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1651,7 +1663,7 @@
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1670,7 +1682,7 @@
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1691,7 +1703,7 @@
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1714,7 +1726,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1737,7 +1749,7 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1760,7 +1772,7 @@
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1783,7 +1795,7 @@
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1802,7 +1814,7 @@
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -1825,7 +1837,7 @@
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1850,7 +1862,7 @@
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1871,7 +1883,7 @@
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1894,12 +1906,12 @@
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B58" s="1">
-        <v>55047.9</v>
+        <v>44562</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1913,12 +1925,12 @@
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="1">
-        <v>60891.4</v>
+        <v>55047.9</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1932,12 +1944,12 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="1">
-        <v>63427.7</v>
+        <v>60891.4</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1951,12 +1963,12 @@
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="1">
-        <v>63181.599999999999</v>
+        <v>63427.7</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1970,12 +1982,12 @@
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="1">
-        <v>68058.899999999994</v>
+        <v>63181.599999999999</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1989,12 +2001,12 @@
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="1">
-        <v>72323.899999999994</v>
+        <v>68058.899999999994</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2008,12 +2020,12 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="1">
-        <v>72257.8</v>
+        <v>72323.899999999994</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2027,12 +2039,12 @@
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="1">
-        <v>74409.11</v>
+        <v>72257.8</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2046,19 +2058,15 @@
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1">
-        <v>84184.15</v>
-      </c>
-      <c r="C66" s="1">
-        <v>151284.4</v>
-      </c>
-      <c r="D66" s="1">
-        <v>278200</v>
-      </c>
+        <v>74409.11</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -2069,17 +2077,19 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="1">
-        <v>49266.66</v>
+        <v>84184.15</v>
       </c>
       <c r="C67" s="1">
-        <v>164765</v>
-      </c>
-      <c r="D67" s="1"/>
+        <v>151284.4</v>
+      </c>
+      <c r="D67" s="1">
+        <v>278200</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -2090,19 +2100,17 @@
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1">
-        <v>59819.557999999997</v>
+        <v>49266.66</v>
       </c>
       <c r="C68" s="1">
-        <v>121245.28</v>
-      </c>
-      <c r="D68" s="1">
-        <v>257592</v>
-      </c>
+        <v>164765</v>
+      </c>
+      <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -2113,18 +2121,18 @@
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1">
-        <v>58761.65</v>
+        <v>59819.557999999997</v>
       </c>
       <c r="C69" s="1">
-        <v>134720</v>
+        <v>121245.28</v>
       </c>
       <c r="D69" s="1">
-        <v>206242</v>
+        <v>257592</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -2136,10 +2144,19 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1">
+        <v>58761.65</v>
+      </c>
+      <c r="C70" s="1">
+        <v>134720</v>
+      </c>
+      <c r="D70" s="1">
+        <v>206242</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -2150,7 +2167,7 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2164,7 +2181,7 @@
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2178,7 +2195,7 @@
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2192,7 +2209,7 @@
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2206,7 +2223,7 @@
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2220,7 +2237,7 @@
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2234,7 +2251,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2248,7 +2265,7 @@
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2262,7 +2279,7 @@
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2276,7 +2293,7 @@
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2290,7 +2307,7 @@
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2304,7 +2321,7 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2318,7 +2335,7 @@
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2332,7 +2349,7 @@
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2346,7 +2363,7 @@
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -2360,7 +2377,7 @@
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2374,7 +2391,7 @@
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2388,7 +2405,7 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2402,7 +2419,7 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -2416,7 +2433,7 @@
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2430,7 +2447,7 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2444,7 +2461,7 @@
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2458,7 +2475,7 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -2472,7 +2489,7 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2486,7 +2503,7 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2500,7 +2517,7 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2514,7 +2531,7 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
     </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2528,7 +2545,7 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
     </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2542,7 +2559,7 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
     </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2556,7 +2573,7 @@
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
     </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2570,7 +2587,7 @@
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2584,7 +2601,7 @@
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
     </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2598,7 +2615,7 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
     </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2612,7 +2629,7 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
     </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2626,7 +2643,7 @@
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
     </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2640,7 +2657,7 @@
       <c r="L105" s="1"/>
       <c r="M105" s="1"/>
     </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -2654,7 +2671,7 @@
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
     </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2668,7 +2685,7 @@
       <c r="L107" s="1"/>
       <c r="M107" s="1"/>
     </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2682,7 +2699,7 @@
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
     </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2696,7 +2713,7 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
     </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2710,7 +2727,7 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
     </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2724,7 +2741,7 @@
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
     </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2738,7 +2755,7 @@
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2752,7 +2769,7 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2766,7 +2783,7 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -2780,7 +2797,7 @@
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2794,7 +2811,7 @@
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -2808,7 +2825,7 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -2822,7 +2839,7 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -2836,7 +2853,7 @@
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -2850,7 +2867,7 @@
       <c r="L120" s="1"/>
       <c r="M120" s="1"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -2864,7 +2881,7 @@
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2878,7 +2895,7 @@
       <c r="L122" s="1"/>
       <c r="M122" s="1"/>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2892,7 +2909,7 @@
       <c r="L123" s="1"/>
       <c r="M123" s="1"/>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2906,7 +2923,7 @@
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -2920,7 +2937,7 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2934,7 +2951,7 @@
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -2948,7 +2965,7 @@
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -2962,7 +2979,7 @@
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -2976,7 +2993,7 @@
       <c r="L129" s="1"/>
       <c r="M129" s="1"/>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -2990,7 +3007,7 @@
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -3004,7 +3021,7 @@
       <c r="L131" s="1"/>
       <c r="M131" s="1"/>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3018,7 +3035,7 @@
       <c r="L132" s="1"/>
       <c r="M132" s="1"/>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3032,7 +3049,7 @@
       <c r="L133" s="1"/>
       <c r="M133" s="1"/>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3046,7 +3063,7 @@
       <c r="L134" s="1"/>
       <c r="M134" s="1"/>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3060,7 +3077,7 @@
       <c r="L135" s="1"/>
       <c r="M135" s="1"/>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3074,7 +3091,7 @@
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3088,7 +3105,7 @@
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3102,7 +3119,7 @@
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -3116,7 +3133,7 @@
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3130,7 +3147,7 @@
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -3144,7 +3161,7 @@
       <c r="L141" s="1"/>
       <c r="M141" s="1"/>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3158,7 +3175,7 @@
       <c r="L142" s="1"/>
       <c r="M142" s="1"/>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3172,7 +3189,7 @@
       <c r="L143" s="1"/>
       <c r="M143" s="1"/>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3186,7 +3203,7 @@
       <c r="L144" s="1"/>
       <c r="M144" s="1"/>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -3200,7 +3217,7 @@
       <c r="L145" s="1"/>
       <c r="M145" s="1"/>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3214,7 +3231,7 @@
       <c r="L146" s="1"/>
       <c r="M146" s="1"/>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -3228,7 +3245,7 @@
       <c r="L147" s="1"/>
       <c r="M147" s="1"/>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3242,7 +3259,7 @@
       <c r="L148" s="1"/>
       <c r="M148" s="1"/>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3256,7 +3273,7 @@
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3270,7 +3287,7 @@
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -3284,7 +3301,7 @@
       <c r="L151" s="1"/>
       <c r="M151" s="1"/>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3298,7 +3315,7 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
     </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3312,7 +3329,7 @@
       <c r="L153" s="1"/>
       <c r="M153" s="1"/>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3326,7 +3343,7 @@
       <c r="L154" s="1"/>
       <c r="M154" s="1"/>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -3340,7 +3357,7 @@
       <c r="L155" s="1"/>
       <c r="M155" s="1"/>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3354,7 +3371,7 @@
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -3368,7 +3385,7 @@
       <c r="L157" s="1"/>
       <c r="M157" s="1"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -3382,7 +3399,7 @@
       <c r="L158" s="1"/>
       <c r="M158" s="1"/>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3396,7 +3413,7 @@
       <c r="L159" s="1"/>
       <c r="M159" s="1"/>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3410,7 +3427,7 @@
       <c r="L160" s="1"/>
       <c r="M160" s="1"/>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3424,7 +3441,7 @@
       <c r="L161" s="1"/>
       <c r="M161" s="1"/>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -3438,7 +3455,7 @@
       <c r="L162" s="1"/>
       <c r="M162" s="1"/>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3452,7 +3469,7 @@
       <c r="L163" s="1"/>
       <c r="M163" s="1"/>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -3466,7 +3483,7 @@
       <c r="L164" s="1"/>
       <c r="M164" s="1"/>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -3480,7 +3497,7 @@
       <c r="L165" s="1"/>
       <c r="M165" s="1"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -3494,7 +3511,7 @@
       <c r="L166" s="1"/>
       <c r="M166" s="1"/>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -3508,7 +3525,7 @@
       <c r="L167" s="1"/>
       <c r="M167" s="1"/>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -3522,7 +3539,7 @@
       <c r="L168" s="1"/>
       <c r="M168" s="1"/>
     </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -3536,7 +3553,7 @@
       <c r="L169" s="1"/>
       <c r="M169" s="1"/>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -3550,7 +3567,7 @@
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -3564,7 +3581,7 @@
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -3578,7 +3595,7 @@
       <c r="L172" s="1"/>
       <c r="M172" s="1"/>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -3592,7 +3609,7 @@
       <c r="L173" s="1"/>
       <c r="M173" s="1"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -3606,7 +3623,7 @@
       <c r="L174" s="1"/>
       <c r="M174" s="1"/>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -3620,7 +3637,7 @@
       <c r="L175" s="1"/>
       <c r="M175" s="1"/>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -3634,7 +3651,7 @@
       <c r="L176" s="1"/>
       <c r="M176" s="1"/>
     </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -3648,7 +3665,7 @@
       <c r="L177" s="1"/>
       <c r="M177" s="1"/>
     </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -3662,7 +3679,7 @@
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
     </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -3676,7 +3693,7 @@
       <c r="L179" s="1"/>
       <c r="M179" s="1"/>
     </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -3690,7 +3707,7 @@
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
     </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -3704,7 +3721,7 @@
       <c r="L181" s="1"/>
       <c r="M181" s="1"/>
     </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -3718,7 +3735,7 @@
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
     </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -3732,7 +3749,7 @@
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
     </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -3746,7 +3763,7 @@
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
     </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -3760,7 +3777,7 @@
       <c r="L185" s="1"/>
       <c r="M185" s="1"/>
     </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -3774,7 +3791,7 @@
       <c r="L186" s="1"/>
       <c r="M186" s="1"/>
     </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -3788,7 +3805,7 @@
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
     </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -3802,7 +3819,7 @@
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
     </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -3816,7 +3833,7 @@
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
     </row>
-    <row r="190" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -3830,7 +3847,7 @@
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
     </row>
-    <row r="191" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -3844,7 +3861,7 @@
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
     </row>
-    <row r="192" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -3858,7 +3875,7 @@
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
     </row>
-    <row r="193" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -3872,7 +3889,7 @@
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
     </row>
-    <row r="194" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -3886,7 +3903,7 @@
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
     </row>
-    <row r="195" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -3900,7 +3917,7 @@
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
     </row>
-    <row r="196" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -3914,7 +3931,7 @@
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
     </row>
-    <row r="197" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -3928,7 +3945,7 @@
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
     </row>
-    <row r="198" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -3942,7 +3959,7 @@
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
     </row>
-    <row r="199" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -3956,7 +3973,7 @@
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
     </row>
-    <row r="200" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -3970,7 +3987,7 @@
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
     </row>
-    <row r="201" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -3984,7 +4001,7 @@
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
     </row>
-    <row r="202" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -3998,7 +4015,7 @@
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
     </row>
-    <row r="203" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -4012,7 +4029,7 @@
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
     </row>
-    <row r="204" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -4026,7 +4043,7 @@
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
     </row>
-    <row r="205" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -4040,7 +4057,7 @@
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
     </row>
-    <row r="206" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -4054,7 +4071,7 @@
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
     </row>
-    <row r="207" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -4068,7 +4085,7 @@
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
     </row>
-    <row r="208" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -4082,7 +4099,7 @@
       <c r="L208" s="1"/>
       <c r="M208" s="1"/>
     </row>
-    <row r="209" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -4096,7 +4113,7 @@
       <c r="L209" s="1"/>
       <c r="M209" s="1"/>
     </row>
-    <row r="210" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -4110,7 +4127,7 @@
       <c r="L210" s="1"/>
       <c r="M210" s="1"/>
     </row>
-    <row r="211" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -4124,7 +4141,7 @@
       <c r="L211" s="1"/>
       <c r="M211" s="1"/>
     </row>
-    <row r="212" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -4138,7 +4155,7 @@
       <c r="L212" s="1"/>
       <c r="M212" s="1"/>
     </row>
-    <row r="213" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -4152,7 +4169,7 @@
       <c r="L213" s="1"/>
       <c r="M213" s="1"/>
     </row>
-    <row r="214" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -4166,7 +4183,7 @@
       <c r="L214" s="1"/>
       <c r="M214" s="1"/>
     </row>
-    <row r="215" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -4180,7 +4197,7 @@
       <c r="L215" s="1"/>
       <c r="M215" s="1"/>
     </row>
-    <row r="216" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -4194,7 +4211,7 @@
       <c r="L216" s="1"/>
       <c r="M216" s="1"/>
     </row>
-    <row r="217" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -4208,7 +4225,7 @@
       <c r="L217" s="1"/>
       <c r="M217" s="1"/>
     </row>
-    <row r="218" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -4222,7 +4239,7 @@
       <c r="L218" s="1"/>
       <c r="M218" s="1"/>
     </row>
-    <row r="219" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -4236,7 +4253,7 @@
       <c r="L219" s="1"/>
       <c r="M219" s="1"/>
     </row>
-    <row r="220" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -4250,7 +4267,7 @@
       <c r="L220" s="1"/>
       <c r="M220" s="1"/>
     </row>
-    <row r="221" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -4264,7 +4281,7 @@
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
     </row>
-    <row r="222" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -4278,7 +4295,7 @@
       <c r="L222" s="1"/>
       <c r="M222" s="1"/>
     </row>
-    <row r="223" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -4292,7 +4309,7 @@
       <c r="L223" s="1"/>
       <c r="M223" s="1"/>
     </row>
-    <row r="224" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -4306,7 +4323,7 @@
       <c r="L224" s="1"/>
       <c r="M224" s="1"/>
     </row>
-    <row r="225" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -4320,7 +4337,7 @@
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
     </row>
-    <row r="226" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -4334,7 +4351,7 @@
       <c r="L226" s="1"/>
       <c r="M226" s="1"/>
     </row>
-    <row r="227" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -4348,7 +4365,7 @@
       <c r="L227" s="1"/>
       <c r="M227" s="1"/>
     </row>
-    <row r="228" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -4362,7 +4379,7 @@
       <c r="L228" s="1"/>
       <c r="M228" s="1"/>
     </row>
-    <row r="229" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -4376,7 +4393,7 @@
       <c r="L229" s="1"/>
       <c r="M229" s="1"/>
     </row>
-    <row r="230" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -4390,7 +4407,7 @@
       <c r="L230" s="1"/>
       <c r="M230" s="1"/>
     </row>
-    <row r="231" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -4404,7 +4421,7 @@
       <c r="L231" s="1"/>
       <c r="M231" s="1"/>
     </row>
-    <row r="232" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -4418,7 +4435,7 @@
       <c r="L232" s="1"/>
       <c r="M232" s="1"/>
     </row>
-    <row r="233" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -4432,7 +4449,7 @@
       <c r="L233" s="1"/>
       <c r="M233" s="1"/>
     </row>
-    <row r="234" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -4446,7 +4463,7 @@
       <c r="L234" s="1"/>
       <c r="M234" s="1"/>
     </row>
-    <row r="235" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -4460,7 +4477,7 @@
       <c r="L235" s="1"/>
       <c r="M235" s="1"/>
     </row>
-    <row r="236" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -4474,7 +4491,7 @@
       <c r="L236" s="1"/>
       <c r="M236" s="1"/>
     </row>
-    <row r="237" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
       <c r="D237" s="1"/>
@@ -4488,7 +4505,7 @@
       <c r="L237" s="1"/>
       <c r="M237" s="1"/>
     </row>
-    <row r="238" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -4502,7 +4519,7 @@
       <c r="L238" s="1"/>
       <c r="M238" s="1"/>
     </row>
-    <row r="239" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
       <c r="D239" s="1"/>
@@ -4516,7 +4533,7 @@
       <c r="L239" s="1"/>
       <c r="M239" s="1"/>
     </row>
-    <row r="240" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="1"/>
@@ -4530,7 +4547,7 @@
       <c r="L240" s="1"/>
       <c r="M240" s="1"/>
     </row>
-    <row r="241" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="1"/>
@@ -4544,7 +4561,7 @@
       <c r="L241" s="1"/>
       <c r="M241" s="1"/>
     </row>
-    <row r="242" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="1"/>
@@ -4558,7 +4575,7 @@
       <c r="L242" s="1"/>
       <c r="M242" s="1"/>
     </row>
-    <row r="243" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
@@ -4572,7 +4589,7 @@
       <c r="L243" s="1"/>
       <c r="M243" s="1"/>
     </row>
-    <row r="244" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="1"/>
@@ -4586,7 +4603,7 @@
       <c r="L244" s="1"/>
       <c r="M244" s="1"/>
     </row>
-    <row r="245" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="1"/>
@@ -4600,7 +4617,7 @@
       <c r="L245" s="1"/>
       <c r="M245" s="1"/>
     </row>
-    <row r="246" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="1"/>
@@ -4614,7 +4631,7 @@
       <c r="L246" s="1"/>
       <c r="M246" s="1"/>
     </row>
-    <row r="247" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="D247" s="1"/>
@@ -4628,7 +4645,7 @@
       <c r="L247" s="1"/>
       <c r="M247" s="1"/>
     </row>
-    <row r="248" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="D248" s="1"/>
@@ -4642,7 +4659,7 @@
       <c r="L248" s="1"/>
       <c r="M248" s="1"/>
     </row>
-    <row r="249" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="D249" s="1"/>
@@ -4656,7 +4673,7 @@
       <c r="L249" s="1"/>
       <c r="M249" s="1"/>
     </row>
-    <row r="250" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="D250" s="1"/>
@@ -4670,7 +4687,7 @@
       <c r="L250" s="1"/>
       <c r="M250" s="1"/>
     </row>
-    <row r="251" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -4684,7 +4701,7 @@
       <c r="L251" s="1"/>
       <c r="M251" s="1"/>
     </row>
-    <row r="252" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -4698,7 +4715,7 @@
       <c r="L252" s="1"/>
       <c r="M252" s="1"/>
     </row>
-    <row r="253" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -4712,7 +4729,7 @@
       <c r="L253" s="1"/>
       <c r="M253" s="1"/>
     </row>
-    <row r="254" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="D254" s="1"/>
@@ -4726,7 +4743,7 @@
       <c r="L254" s="1"/>
       <c r="M254" s="1"/>
     </row>
-    <row r="255" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -4740,7 +4757,7 @@
       <c r="L255" s="1"/>
       <c r="M255" s="1"/>
     </row>
-    <row r="256" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="D256" s="1"/>
@@ -4754,7 +4771,7 @@
       <c r="L256" s="1"/>
       <c r="M256" s="1"/>
     </row>
-    <row r="257" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="D257" s="1"/>
@@ -4768,7 +4785,7 @@
       <c r="L257" s="1"/>
       <c r="M257" s="1"/>
     </row>
-    <row r="258" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -4782,7 +4799,7 @@
       <c r="L258" s="1"/>
       <c r="M258" s="1"/>
     </row>
-    <row r="259" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="D259" s="1"/>
@@ -4796,7 +4813,7 @@
       <c r="L259" s="1"/>
       <c r="M259" s="1"/>
     </row>
-    <row r="260" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="D260" s="1"/>
@@ -4810,7 +4827,7 @@
       <c r="L260" s="1"/>
       <c r="M260" s="1"/>
     </row>
-    <row r="261" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="D261" s="1"/>
@@ -4824,7 +4841,7 @@
       <c r="L261" s="1"/>
       <c r="M261" s="1"/>
     </row>
-    <row r="262" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="D262" s="1"/>
@@ -4838,7 +4855,7 @@
       <c r="L262" s="1"/>
       <c r="M262" s="1"/>
     </row>
-    <row r="263" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="D263" s="1"/>
@@ -4852,7 +4869,7 @@
       <c r="L263" s="1"/>
       <c r="M263" s="1"/>
     </row>
-    <row r="264" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="D264" s="1"/>
@@ -4866,7 +4883,7 @@
       <c r="L264" s="1"/>
       <c r="M264" s="1"/>
     </row>
-    <row r="265" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="D265" s="1"/>
@@ -4880,7 +4897,7 @@
       <c r="L265" s="1"/>
       <c r="M265" s="1"/>
     </row>
-    <row r="266" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="D266" s="1"/>
@@ -4894,7 +4911,7 @@
       <c r="L266" s="1"/>
       <c r="M266" s="1"/>
     </row>
-    <row r="267" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="D267" s="1"/>
@@ -4908,7 +4925,7 @@
       <c r="L267" s="1"/>
       <c r="M267" s="1"/>
     </row>
-    <row r="268" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="D268" s="1"/>
@@ -4922,7 +4939,7 @@
       <c r="L268" s="1"/>
       <c r="M268" s="1"/>
     </row>
-    <row r="269" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="D269" s="1"/>
@@ -4936,7 +4953,7 @@
       <c r="L269" s="1"/>
       <c r="M269" s="1"/>
     </row>
-    <row r="270" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="1"/>
@@ -4950,7 +4967,7 @@
       <c r="L270" s="1"/>
       <c r="M270" s="1"/>
     </row>
-    <row r="271" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="D271" s="1"/>
@@ -4964,7 +4981,7 @@
       <c r="L271" s="1"/>
       <c r="M271" s="1"/>
     </row>
-    <row r="272" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="1"/>
@@ -4978,7 +4995,7 @@
       <c r="L272" s="1"/>
       <c r="M272" s="1"/>
     </row>
-    <row r="273" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="1"/>
@@ -4992,7 +5009,7 @@
       <c r="L273" s="1"/>
       <c r="M273" s="1"/>
     </row>
-    <row r="274" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="1"/>
@@ -5006,7 +5023,7 @@
       <c r="L274" s="1"/>
       <c r="M274" s="1"/>
     </row>
-    <row r="275" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="1"/>
@@ -5020,7 +5037,7 @@
       <c r="L275" s="1"/>
       <c r="M275" s="1"/>
     </row>
-    <row r="276" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="1"/>
@@ -5034,7 +5051,7 @@
       <c r="L276" s="1"/>
       <c r="M276" s="1"/>
     </row>
-    <row r="277" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="1"/>
@@ -5048,7 +5065,7 @@
       <c r="L277" s="1"/>
       <c r="M277" s="1"/>
     </row>
-    <row r="278" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -5062,7 +5079,7 @@
       <c r="L278" s="1"/>
       <c r="M278" s="1"/>
     </row>
-    <row r="279" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="1"/>
@@ -5076,7 +5093,7 @@
       <c r="L279" s="1"/>
       <c r="M279" s="1"/>
     </row>
-    <row r="280" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="D280" s="1"/>
@@ -5090,7 +5107,7 @@
       <c r="L280" s="1"/>
       <c r="M280" s="1"/>
     </row>
-    <row r="281" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="D281" s="1"/>
@@ -5104,7 +5121,7 @@
       <c r="L281" s="1"/>
       <c r="M281" s="1"/>
     </row>
-    <row r="282" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="D282" s="1"/>
@@ -5118,7 +5135,7 @@
       <c r="L282" s="1"/>
       <c r="M282" s="1"/>
     </row>
-    <row r="283" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="D283" s="1"/>
@@ -5132,7 +5149,7 @@
       <c r="L283" s="1"/>
       <c r="M283" s="1"/>
     </row>
-    <row r="284" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="D284" s="1"/>
@@ -5146,6 +5163,20 @@
       <c r="L284" s="1"/>
       <c r="M284" s="1"/>
     </row>
+    <row r="285" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+      <c r="G285" s="1"/>
+      <c r="H285" s="1"/>
+      <c r="I285" s="1"/>
+      <c r="J285" s="1"/>
+      <c r="K285" s="1"/>
+      <c r="L285" s="1"/>
+      <c r="M285" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
